--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H2">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>30.7905652479861</v>
+        <v>6.992380999999999</v>
       </c>
       <c r="N2">
-        <v>30.7905652479861</v>
+        <v>20.977143</v>
       </c>
       <c r="O2">
-        <v>0.7532401300196574</v>
+        <v>0.1454502834669897</v>
       </c>
       <c r="P2">
-        <v>0.7532401300196574</v>
+        <v>0.1454502834669897</v>
       </c>
       <c r="Q2">
-        <v>21.04123978871271</v>
+        <v>5.224140700338999</v>
       </c>
       <c r="R2">
-        <v>21.04123978871271</v>
+        <v>47.017266303051</v>
       </c>
       <c r="S2">
-        <v>0.02153383878515872</v>
+        <v>0.004504529614818578</v>
       </c>
       <c r="T2">
-        <v>0.02153383878515872</v>
+        <v>0.004504529614818578</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H3">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.0869239096648</v>
+        <v>30.83466</v>
       </c>
       <c r="N3">
-        <v>10.0869239096648</v>
+        <v>92.50398</v>
       </c>
       <c r="O3">
-        <v>0.2467598699803426</v>
+        <v>0.641399551541635</v>
       </c>
       <c r="P3">
-        <v>0.2467598699803426</v>
+        <v>0.641399551541635</v>
       </c>
       <c r="Q3">
-        <v>6.893065554476579</v>
+        <v>23.03716034454</v>
       </c>
       <c r="R3">
-        <v>6.893065554476579</v>
+        <v>207.33444310086</v>
       </c>
       <c r="S3">
-        <v>0.007054439941569168</v>
+        <v>0.01986385454866688</v>
       </c>
       <c r="T3">
-        <v>0.007054439941569168</v>
+        <v>0.01986385454866688</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.5922617627955</v>
+        <v>0.747119</v>
       </c>
       <c r="H4">
-        <v>19.5922617627955</v>
+        <v>2.241357</v>
       </c>
       <c r="I4">
-        <v>0.8196320236006495</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J4">
-        <v>0.8196320236006495</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.7905652479861</v>
+        <v>10.246987</v>
       </c>
       <c r="N4">
-        <v>30.7905652479861</v>
+        <v>30.740961</v>
       </c>
       <c r="O4">
-        <v>0.7532401300196574</v>
+        <v>0.2131501649913754</v>
       </c>
       <c r="P4">
-        <v>0.7532401300196574</v>
+        <v>0.2131501649913754</v>
       </c>
       <c r="Q4">
-        <v>603.2568141629779</v>
+        <v>7.655718680452999</v>
       </c>
       <c r="R4">
-        <v>603.2568141629779</v>
+        <v>68.90146812407698</v>
       </c>
       <c r="S4">
-        <v>0.6173797320252281</v>
+        <v>0.006601164382227024</v>
       </c>
       <c r="T4">
-        <v>0.6173797320252281</v>
+        <v>0.006601164382227024</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H5">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>10.0869239096648</v>
+        <v>6.992380999999999</v>
       </c>
       <c r="N5">
-        <v>10.0869239096648</v>
+        <v>20.977143</v>
       </c>
       <c r="O5">
-        <v>0.2467598699803426</v>
+        <v>0.1454502834669897</v>
       </c>
       <c r="P5">
-        <v>0.2467598699803426</v>
+        <v>0.1454502834669897</v>
       </c>
       <c r="Q5">
-        <v>197.6256536195533</v>
+        <v>138.0729000939457</v>
       </c>
       <c r="R5">
-        <v>197.6256536195533</v>
+        <v>1242.656100845511</v>
       </c>
       <c r="S5">
-        <v>0.2022522915754214</v>
+        <v>0.119053735944881</v>
       </c>
       <c r="T5">
-        <v>0.2022522915754214</v>
+        <v>0.119053735944881</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.6281007591876</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H6">
-        <v>3.6281007591876</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.1517796976726226</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J6">
-        <v>0.1517796976726226</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.7905652479861</v>
+        <v>30.83466</v>
       </c>
       <c r="N6">
-        <v>30.7905652479861</v>
+        <v>92.50398</v>
       </c>
       <c r="O6">
-        <v>0.7532401300196574</v>
+        <v>0.641399551541635</v>
       </c>
       <c r="P6">
-        <v>0.7532401300196574</v>
+        <v>0.641399551541635</v>
       </c>
       <c r="Q6">
-        <v>111.7112731520337</v>
+        <v>608.8671268929401</v>
       </c>
       <c r="R6">
-        <v>111.7112731520337</v>
+        <v>5479.804142036461</v>
       </c>
       <c r="S6">
-        <v>0.1143265592092706</v>
+        <v>0.5249973463388489</v>
       </c>
       <c r="T6">
-        <v>0.1143265592092706</v>
+        <v>0.5249973463388489</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.6281007591876</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H7">
-        <v>3.6281007591876</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.1517796976726226</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J7">
-        <v>0.1517796976726226</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.0869239096648</v>
+        <v>10.246987</v>
       </c>
       <c r="N7">
-        <v>10.0869239096648</v>
+        <v>30.740961</v>
       </c>
       <c r="O7">
-        <v>0.2467598699803426</v>
+        <v>0.2131501649913754</v>
       </c>
       <c r="P7">
-        <v>0.2467598699803426</v>
+        <v>0.2131501649913754</v>
       </c>
       <c r="Q7">
-        <v>36.59637629452241</v>
+        <v>202.3389761391663</v>
       </c>
       <c r="R7">
-        <v>36.59637629452241</v>
+        <v>1821.050785252497</v>
       </c>
       <c r="S7">
-        <v>0.03745313846335207</v>
+        <v>0.1744673358800999</v>
       </c>
       <c r="T7">
-        <v>0.03745313846335207</v>
+        <v>0.1744673358800999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.630999</v>
+      </c>
+      <c r="H8">
+        <v>10.892997</v>
+      </c>
+      <c r="I8">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="J8">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>6.992380999999999</v>
+      </c>
+      <c r="N8">
+        <v>20.977143</v>
+      </c>
+      <c r="O8">
+        <v>0.1454502834669897</v>
+      </c>
+      <c r="P8">
+        <v>0.1454502834669897</v>
+      </c>
+      <c r="Q8">
+        <v>25.38932841861899</v>
+      </c>
+      <c r="R8">
+        <v>228.503955767571</v>
+      </c>
+      <c r="S8">
+        <v>0.02189201790729006</v>
+      </c>
+      <c r="T8">
+        <v>0.02189201790729006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.630999</v>
+      </c>
+      <c r="H9">
+        <v>10.892997</v>
+      </c>
+      <c r="I9">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="J9">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>30.83466</v>
+      </c>
+      <c r="N9">
+        <v>92.50398</v>
+      </c>
+      <c r="O9">
+        <v>0.641399551541635</v>
+      </c>
+      <c r="P9">
+        <v>0.641399551541635</v>
+      </c>
+      <c r="Q9">
+        <v>111.96061962534</v>
+      </c>
+      <c r="R9">
+        <v>1007.64557662806</v>
+      </c>
+      <c r="S9">
+        <v>0.09653835065411918</v>
+      </c>
+      <c r="T9">
+        <v>0.0965383506541192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.630999</v>
+      </c>
+      <c r="H10">
+        <v>10.892997</v>
+      </c>
+      <c r="I10">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="J10">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10.246987</v>
+      </c>
+      <c r="N10">
+        <v>30.740961</v>
+      </c>
+      <c r="O10">
+        <v>0.2131501649913754</v>
+      </c>
+      <c r="P10">
+        <v>0.2131501649913754</v>
+      </c>
+      <c r="Q10">
+        <v>37.206799550013</v>
+      </c>
+      <c r="R10">
+        <v>334.861195950117</v>
+      </c>
+      <c r="S10">
+        <v>0.03208166472904844</v>
+      </c>
+      <c r="T10">
+        <v>0.03208166472904844</v>
       </c>
     </row>
   </sheetData>
